--- a/pred_ohlcv/54_21/2019-10-28 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2315300.975832134</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1682054.319132133</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-626097.0530888154</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2118738.428188816</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3051640.790114742</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2954869.949557599</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-5498325.605614742</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5295885.775914743</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5986418.776414743</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-6156828.812814742</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5894939.220924419</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6118059.22192442</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6105563.660024419</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5509250.924714742</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5196195.074774103</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5196195.074774103</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-6980894.845274104</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7181011.379974104</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6414102.335974104</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6072781.631674103</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6072781.631674103</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5831612.802474104</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5936015.760674104</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6360040.946974104</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6360040.946974104</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6527344.919751882</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-42040658.57016007</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-42032045.70256007</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-42380520.73562917</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-42291920.73562917</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-42023547.62464365</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-41555980.64947843</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-41747938.04787843</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-41333191.60590517</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-41498315.62160517</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-41440795.79970516</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-41436727.89570516</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-41381483.30040517</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-41435900.01420517</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-41422609.58410516</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-41198320.33010516</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-41346031.12116124</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-41210256.62236886</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-41265196.16356885</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-41272963.70016886</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-41271170.02731939</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-40977550.83516025</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-40865651.35776025</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-40170842.14186025</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-40065356.42466024</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-39618365.50196024</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-39683662.01686024</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-39655220.35516024</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-39716742.8462769</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-39600052.70839357</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-39885814.29521023</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-39877560.12861024</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-39975335.40801024</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-39923519.12891024</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-39765180.26991025</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-39082769.75451025</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-39109511.43461025</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-39172655.62331025</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-38734167.32546973</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-39375608.25896973</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-39352538.04546973</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-39847257.66976973</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-39837226.57966973</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-39835332.85846973</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-39642360.32647435</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-39754910.61511537</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-40046188.58061537</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-39999826.01241537</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-40311817.33241537</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-40218183.80041537</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-40254572.54131538</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-39915886.56940281</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-40633586.20650282</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-40547339.88580282</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-41238397.02550282</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-46337561.6586142</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-49328703.31599795</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-48070162.07129795</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-48070129.21639795</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-48058241.22459795</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-48149034.42979795</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-48149024.42979795</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-48354127.47139794</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-48219497.52769794</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-48185710.98939794</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-48419967.31999794</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-48655520.66259795</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-48630053.49859795</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-48552357.56459795</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-48193255.04443654</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-48594269.42714991</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-48888646.09554991</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-48528258.07444991</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-48538636.51874992</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-48663929.96784992</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-48663919.96784992</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-48694991.76504992</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-48819375.14104992</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-48826959.22204992</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-49694364.79649607</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-49999675.59599607</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-49999675.59599607</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-49999646.64579608</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-49999646.64579608</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-49860174.99449608</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-49860174.99449608</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-49868307.95049608</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-49868307.95049608</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-50143644.22449607</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-50158660.98169824</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-50158650.26749824</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-50158650.26749824</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-50158650.26749824</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-50158650.26749824</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-50265537.78859824</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-50265318.00839824</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-50265318.00839824</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-50263237.30969824</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-50263237.30969824</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-50641432.49249824</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-50722600.10259824</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-50345810.63539824</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-50345810.63539824</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-50104390.81809824</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-50426431.38719824</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-50426431.38719824</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2315300.975832134</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1682054.319132133</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2118738.428188816</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3051640.790114742</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2714790.870414742</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2954869.949557599</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-5498325.605614742</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5295885.775914743</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5986418.776414743</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-6156828.812814742</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5894939.220924419</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6118059.22192442</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6105563.660024419</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5509250.924714742</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5196195.074774103</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5196195.074774103</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-6980894.845274104</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7181011.379974104</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6414102.335974104</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6072781.631674103</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6072781.631674103</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5831612.802474104</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5936015.760674104</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6360040.946974104</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6360040.946974104</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6527344.919751882</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9573722.775751881</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-9143136.715951882</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-9117680.731051883</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10014264.37785188</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-9814371.410551883</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9814371.410551883</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-10261153.70585188</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-10492400.97365188</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9992099.917751884</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-10794639.68145188</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11086496.69625188</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-42032045.70256007</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-42141997.72313784</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-42171557.20773784</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-42171915.36743784</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-42171915.36743784</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-42275503.00683784</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-42161769.74563783</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-42144790.57793783</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-42169829.05483783</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-42170095.26753783</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-42159783.48976006</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-42335726.80366006</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-42336403.42566006</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-41829781.65442917</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-41829781.65442917</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-41829771.52932917</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-42057965.01512916</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-42380520.73562917</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-42291920.73562917</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-42172683.04352918</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-42172683.04352918</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-42079397.59796105</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-41917249.51726104</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-41886382.49946104</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-41979859.01134365</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-42023547.62464365</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-41555980.64947843</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-41747938.04787843</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-41333191.60590517</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-41498315.62160517</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-41440795.79970516</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-41436727.89570516</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-41381483.30040517</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-41435900.01420517</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-41422609.58410516</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-41198320.33010516</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-41346031.12116124</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-41210256.62236886</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-41265196.16356885</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-41272963.70016886</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-41271170.02731939</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-40977550.83516025</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-40865651.35776025</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-40170842.14186025</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-40065356.42466024</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-39618365.50196024</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-39683662.01686024</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-39655220.35516024</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-39716742.8462769</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-39600052.70839357</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-39885814.29521023</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-39877560.12861024</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-39975335.40801024</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-39923519.12891024</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-39765180.26991025</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-39082769.75451025</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-39109511.43461025</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-39172655.62331025</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-38734167.32546973</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-39375608.25896973</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-39352538.04546973</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-39847257.66976973</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-39837226.57966973</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-39835332.85846973</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-39642360.32647435</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-39754910.61511537</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-40046188.58061537</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-39999826.01241537</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-40311817.33241537</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-40218183.80041537</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-40254572.54131538</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-39915886.56940281</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-40633586.20650282</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-40547339.88580282</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-41238397.02550282</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-46337582.6586142</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-46337561.6586142</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-46132764.58051419</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-46170657.34971419</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-46135944.28852745</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-45846102.60862745</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-49328703.31599795</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-48070162.07129795</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-48058241.22459795</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-48149034.42979795</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-48149024.42979795</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-48354127.47139794</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-48219497.52769794</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-48185710.98939794</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-48419967.31999794</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-48655520.66259795</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-48630053.49859795</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-48552357.56459795</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-48297871.76959796</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-48470114.40494992</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-48594269.42714991</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-48888646.09554991</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-48528258.07444991</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-48538636.51874992</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-48694991.76504992</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-48827183.53884992</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-50263237.30969824</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-50272336.19339824</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-50272336.19339824</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-50120772.82949824</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-50141531.52979824</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-50140813.02969824</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-50618791.57499824</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-50720906.84179825</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
